--- a/Pedregal/posiciones.xlsx
+++ b/Pedregal/posiciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noblex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noblex\Desktop\eclipse\Pedregal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9381FA2D-86B3-48EC-9D0B-87F1A9D81542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF631989-FF1A-4A6D-885B-15C1A9A3D729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{B74C914A-F370-4BCE-A52D-73749669084B}"/>
   </bookViews>
@@ -310,9 +310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -322,6 +319,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -343,11 +342,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -686,7 +686,7 @@
   <dimension ref="B1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,54 +697,54 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="16"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1">
@@ -774,19 +774,19 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="18"/>
+      <c r="L4" s="8"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="19"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1">
         <v>0</v>
       </c>
@@ -814,19 +814,19 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="18"/>
+      <c r="L5" s="8"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="19"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <v>0</v>
       </c>
@@ -854,19 +854,19 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="18"/>
+      <c r="L6" s="8"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="19"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <v>0</v>
       </c>
@@ -894,19 +894,19 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="18"/>
+      <c r="L7" s="8"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="19"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <v>0</v>
       </c>
@@ -934,19 +934,19 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="18"/>
+      <c r="L8" s="8"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="19"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1">
@@ -976,143 +976,143 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="18"/>
+      <c r="L9" s="8"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="19"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="18"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="19"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="18"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="19"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="18"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="19"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="8"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="20"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="22"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1">
@@ -1142,8 +1142,8 @@
       <c r="K15" s="1">
         <v>4</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="N15" s="21"/>
+      <c r="L15" s="8"/>
+      <c r="N15" s="12"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1151,10 +1151,10 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="22"/>
+      <c r="V15" s="13"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -1182,8 +1182,8 @@
       <c r="K16" s="1">
         <v>5</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="N16" s="21"/>
+      <c r="L16" s="8"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1" t="s">
@@ -1195,10 +1195,10 @@
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="22"/>
+      <c r="V16" s="13"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -1226,8 +1226,8 @@
       <c r="K17" s="1">
         <v>7</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="N17" s="21"/>
+      <c r="L17" s="8"/>
+      <c r="N17" s="12"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>4</v>
       </c>
       <c r="U17" s="1"/>
-      <c r="V17" s="22"/>
+      <c r="V17" s="13"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -1272,8 +1272,8 @@
       <c r="K18" s="1">
         <v>7</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="N18" s="21"/>
+      <c r="L18" s="8"/>
+      <c r="N18" s="12"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
         <v>1</v>
@@ -1287,10 +1287,10 @@
         <v>5</v>
       </c>
       <c r="U18" s="1"/>
-      <c r="V18" s="22"/>
+      <c r="V18" s="13"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -1318,8 +1318,8 @@
       <c r="K19" s="1">
         <v>9</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="N19" s="21"/>
+      <c r="L19" s="8"/>
+      <c r="N19" s="12"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
@@ -1331,10 +1331,10 @@
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="22"/>
+      <c r="V19" s="13"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="1">
@@ -1364,8 +1364,8 @@
       <c r="K20" s="1">
         <v>10</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="N20" s="21"/>
+      <c r="L20" s="8"/>
+      <c r="N20" s="12"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1373,31 +1373,31 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="22"/>
+      <c r="V20" s="13"/>
     </row>
     <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="8"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N22" s="23" t="s">
